--- a/data/gemas.xlsx
+++ b/data/gemas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farrelmanazilin/Downloads/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/farrelmanazilin/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9E2E90-A3B4-694A-92D6-5DAD73D0F1B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBECDDB5-1135-5348-BD3E-18DAD0C31F5D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,7 +56,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="mmm\-d"/>
+    <numFmt numFmtId="165" formatCode="mmmm\-d"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -66,25 +70,30 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="&quot;Times New Roman&quot;"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
+      <color rgb="FF1F1F1F"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -94,16 +103,53 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -111,28 +157,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -352,2450 +398,2480 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="228" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="125" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" style="1" customWidth="1"/>
-    <col min="5" max="10" width="12.6640625" style="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>42736</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>44943</v>
+      </c>
+      <c r="B2" s="6">
         <v>1013.35</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="6">
         <v>9084.7800000000007</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="6">
         <v>1875.64</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="6">
         <v>1278.57</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="6">
         <v>12119.1</v>
       </c>
       <c r="G2" s="6">
         <v>280.32</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="6">
         <v>10035.84</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="6">
         <v>3071.53</v>
       </c>
       <c r="J2" s="6">
         <v>9.98</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>42767</v>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>44974</v>
       </c>
       <c r="B3" s="6">
         <v>888.34</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="6">
         <v>8811.4500000000007</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="6">
         <v>1659.63</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="6">
         <v>1208.6300000000001</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="6">
         <v>11407.35</v>
       </c>
       <c r="G3" s="6">
         <v>280.37</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="6">
         <v>9874.3700000000008</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="6">
         <v>2449.5300000000002</v>
       </c>
       <c r="J3" s="6">
         <v>11.71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4">
-        <v>42795</v>
-      </c>
-      <c r="B4" s="5">
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>45002</v>
+      </c>
+      <c r="B4" s="6">
         <v>1329.12</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="6">
         <v>9984.8700000000008</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1969.19</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="6">
         <v>1516.24</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="6">
         <v>13202.24</v>
       </c>
       <c r="G4" s="6">
         <v>290.88</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="6">
         <v>11172.84</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="6">
         <v>3248.21</v>
       </c>
       <c r="J4" s="6">
         <v>6.55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
-        <v>42826</v>
-      </c>
-      <c r="B5" s="5">
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>45033</v>
+      </c>
+      <c r="B5" s="6">
         <v>1095.3399999999999</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="6">
         <v>9041.43</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>1813.85</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="6">
         <v>1036.24</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="6">
         <v>12233.45</v>
       </c>
       <c r="G5" s="6">
         <v>277.95999999999998</v>
       </c>
-      <c r="H5" s="5">
+      <c r="H5" s="6">
         <v>10029.42</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="6">
         <v>2956.13</v>
       </c>
       <c r="J5" s="6">
         <v>6.19</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="4">
-        <v>42856</v>
-      </c>
-      <c r="B6" s="5">
+        <v>45063</v>
+      </c>
+      <c r="B6" s="6">
         <v>1288.57</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="6">
         <v>10566.97</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>1917.02</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="6">
         <v>1294.3900000000001</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <v>13039.47</v>
       </c>
       <c r="G6" s="6">
         <v>314.93</v>
       </c>
-      <c r="H6" s="5">
+      <c r="H6" s="6">
         <v>10925.15</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="6">
         <v>3089.95</v>
       </c>
       <c r="J6" s="6">
         <v>3.83</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="4">
-        <v>42887</v>
-      </c>
-      <c r="B7" s="5">
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>45094</v>
+      </c>
+      <c r="B7" s="6">
         <v>1111.77</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="6">
         <v>7461.03</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="6">
         <v>1418.77</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="6">
         <v>1276.3</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F7" s="6">
         <v>10385.08</v>
       </c>
       <c r="G7" s="6">
         <v>267.44</v>
       </c>
-      <c r="H7" s="5">
+      <c r="H7" s="6">
         <v>8614.52</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="6">
         <v>2776.29</v>
       </c>
       <c r="J7" s="6">
         <v>3.12</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="4">
-        <v>42917</v>
-      </c>
-      <c r="B8" s="5">
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>45124</v>
+      </c>
+      <c r="B8" s="6">
         <v>1069.08</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="6">
         <v>10514.38</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="6">
         <v>2306.35</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="6">
         <v>1164.97</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="6">
         <v>12446.09</v>
       </c>
       <c r="G8" s="6">
         <v>320.16000000000003</v>
       </c>
-      <c r="H8" s="5">
+      <c r="H8" s="6">
         <v>10377.120000000001</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="6">
         <v>2911.12</v>
       </c>
       <c r="J8" s="6">
         <v>2.66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="4">
-        <v>42948</v>
-      </c>
-      <c r="B9" s="5">
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>45155</v>
+      </c>
+      <c r="B9" s="6">
         <v>1193.99</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="6">
         <v>10164.27</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="6">
         <v>2150.94</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="6">
         <v>1233.6199999999999</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="6">
         <v>13954.38</v>
       </c>
       <c r="G9" s="6">
         <v>381.19</v>
       </c>
-      <c r="H9" s="5">
+      <c r="H9" s="6">
         <v>11663.55</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="6">
         <v>3140.31</v>
       </c>
       <c r="J9" s="6">
         <v>2.94</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="4">
-        <v>42979</v>
-      </c>
-      <c r="B10" s="5">
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>45186</v>
+      </c>
+      <c r="B10" s="6">
         <v>1117.78</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="6">
         <v>9660.1299999999992</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="6">
         <v>2010.38</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="6">
         <v>1455.01</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="6">
         <v>13125.21</v>
       </c>
       <c r="G10" s="6">
         <v>315.89</v>
       </c>
-      <c r="H10" s="5">
+      <c r="H10" s="6">
         <v>10812.92</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="6">
         <v>3440.43</v>
       </c>
       <c r="J10" s="6">
         <v>10.98</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="4">
-        <v>43009</v>
-      </c>
-      <c r="B11" s="5">
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>45216</v>
+      </c>
+      <c r="B11" s="6">
         <v>1251.19</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="6">
         <v>10856.83</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="6">
         <v>2141.16</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="6">
         <v>1488.18</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="6">
         <v>13764.39</v>
       </c>
       <c r="G11" s="6">
         <v>349.46</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="6">
         <v>11113.95</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="6">
         <v>3774.95</v>
       </c>
       <c r="J11" s="6">
         <v>14.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A12" s="4">
-        <v>43040</v>
-      </c>
-      <c r="B12" s="5">
+    <row r="12" spans="1:10">
+      <c r="A12" s="3">
+        <v>45247</v>
+      </c>
+      <c r="B12" s="6">
         <v>1341.08</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>11188</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="6">
         <v>2584.4499999999998</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="6">
         <v>1295.76</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="6">
         <v>14038.97</v>
       </c>
       <c r="G12" s="6">
         <v>316.64999999999998</v>
       </c>
-      <c r="H12" s="5">
+      <c r="H12" s="6">
         <v>11589.36</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="6">
         <v>3423.1</v>
       </c>
       <c r="J12" s="6">
         <v>5.62</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="4">
-        <v>43070</v>
-      </c>
-      <c r="B13" s="5">
+    <row r="13" spans="1:10">
+      <c r="A13" s="3">
+        <v>45277</v>
+      </c>
+      <c r="B13" s="6">
         <v>1375.42</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="6">
         <v>11090.61</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="6">
         <v>2638.44</v>
       </c>
-      <c r="E13" s="5">
+      <c r="E13" s="6">
         <v>1496.46</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F13" s="6">
         <v>13368.09</v>
       </c>
       <c r="G13" s="6">
         <v>275.74</v>
       </c>
-      <c r="H13" s="5">
+      <c r="H13" s="6">
         <v>10537.2</v>
       </c>
-      <c r="I13" s="5">
+      <c r="I13" s="6">
         <v>4048.03</v>
       </c>
       <c r="J13" s="6">
         <v>3.58</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="4">
-        <v>43101</v>
-      </c>
-      <c r="B14" s="5">
+    <row r="14" spans="1:10">
+      <c r="A14" s="3">
+        <v>44944</v>
+      </c>
+      <c r="B14" s="6">
         <v>1362.94</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="6">
         <v>11500.5</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="6">
         <v>2446</v>
       </c>
-      <c r="E14" s="5">
+      <c r="E14" s="6">
         <v>1342.67</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="6">
         <v>13233.61</v>
       </c>
       <c r="G14" s="6">
         <v>258.11</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="6">
         <v>10748.26</v>
       </c>
-      <c r="I14" s="5">
+      <c r="I14" s="6">
         <v>3567.9</v>
       </c>
       <c r="J14" s="6">
         <v>2.02</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="4">
-        <v>43132</v>
-      </c>
-      <c r="B15" s="5">
+    <row r="15" spans="1:10">
+      <c r="A15" s="3">
+        <v>44975</v>
+      </c>
+      <c r="B15" s="6">
         <v>1378.85</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="6">
         <v>10600.29</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="6">
         <v>2206.36</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="6">
         <v>1388.75</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F15" s="6">
         <v>12743.63</v>
       </c>
       <c r="G15" s="6">
         <v>233.5</v>
       </c>
-      <c r="H15" s="5">
+      <c r="H15" s="6">
         <v>10348.89</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="6">
         <v>3546.63</v>
       </c>
       <c r="J15" s="6">
         <v>3.36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="4">
-        <v>43160</v>
-      </c>
-      <c r="B16" s="5">
+    <row r="16" spans="1:10">
+      <c r="A16" s="3">
+        <v>45003</v>
+      </c>
+      <c r="B16" s="6">
         <v>1201.1500000000001</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16" s="6">
         <v>10876.82</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="6">
         <v>2385.63</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E16" s="6">
         <v>1256.1500000000001</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16" s="6">
         <v>14254.46</v>
       </c>
       <c r="G16" s="6">
         <v>281.02999999999997</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H16" s="6">
         <v>11308.89</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="6">
         <v>3903.84</v>
       </c>
       <c r="J16" s="6">
         <v>16.86</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="4">
-        <v>43191</v>
-      </c>
-      <c r="B17" s="5">
+    <row r="17" spans="1:10">
+      <c r="A17" s="3">
+        <v>45034</v>
+      </c>
+      <c r="B17" s="6">
         <v>1503.08</v>
       </c>
-      <c r="C17" s="5">
+      <c r="C17" s="6">
         <v>12088.9</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="6">
         <v>2570.31</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="6">
         <v>1178.78</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="6">
         <v>13317.46</v>
       </c>
       <c r="G17" s="6">
         <v>298.54000000000002</v>
       </c>
-      <c r="H17" s="5">
+      <c r="H17" s="6">
         <v>10827.96</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="6">
         <v>3350.28</v>
       </c>
       <c r="J17" s="6">
         <v>19.45</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="4">
-        <v>43221</v>
-      </c>
-      <c r="B18" s="5">
+        <v>45064</v>
+      </c>
+      <c r="B18" s="6">
         <v>1730.04</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="6">
         <v>13188.17</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="6">
         <v>2744.68</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="6">
         <v>1633.1</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="6">
         <v>14565.24</v>
       </c>
       <c r="G18" s="6">
         <v>307.98</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="6">
         <v>11961.1</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>3912.73</v>
       </c>
       <c r="J18" s="6">
         <v>16.54</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="4">
-        <v>43252</v>
-      </c>
-      <c r="B19" s="5">
+    <row r="19" spans="1:10">
+      <c r="A19" s="3">
+        <v>45095</v>
+      </c>
+      <c r="B19" s="6">
         <v>1008</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="6">
         <v>8585.92</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="6">
         <v>1673.97</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="6">
         <v>1646.7</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19" s="6">
         <v>11295.04</v>
       </c>
       <c r="G19" s="6">
         <v>199.8</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="6">
         <v>8679.94</v>
       </c>
-      <c r="I19" s="5">
+      <c r="I19" s="6">
         <v>4061.54</v>
       </c>
       <c r="J19" s="6">
         <v>0.46</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="4">
-        <v>43282</v>
-      </c>
-      <c r="B20" s="5">
+    <row r="20" spans="1:10">
+      <c r="A20" s="3">
+        <v>45125</v>
+      </c>
+      <c r="B20" s="6">
         <v>1711.97</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="6">
         <v>13704.08</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="6">
         <v>2881.09</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="6">
         <v>1416.51</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F20" s="6">
         <v>14868.21</v>
       </c>
       <c r="G20" s="6">
         <v>300.32</v>
       </c>
-      <c r="H20" s="5">
+      <c r="H20" s="6">
         <v>11941.91</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>4041.91</v>
       </c>
       <c r="J20" s="6">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A21" s="4">
-        <v>43313</v>
-      </c>
-      <c r="B21" s="5">
+    <row r="21" spans="1:10">
+      <c r="A21" s="3">
+        <v>45156</v>
+      </c>
+      <c r="B21" s="6">
         <v>1555.54</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="6">
         <v>12633.28</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="6">
         <v>2629.32</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21" s="6">
         <v>1423.75</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21" s="6">
         <v>14441.37</v>
       </c>
       <c r="G21" s="6">
         <v>301.79000000000002</v>
       </c>
-      <c r="H21" s="5">
+      <c r="H21" s="6">
         <v>11913.51</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>3649.37</v>
       </c>
       <c r="J21" s="6">
         <v>0.46</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="4">
-        <v>43344</v>
-      </c>
-      <c r="B22" s="5">
+    <row r="22" spans="1:10">
+      <c r="A22" s="3">
+        <v>45187</v>
+      </c>
+      <c r="B22" s="6">
         <v>1325.82</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="6">
         <v>10902.02</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="6">
         <v>2382.2199999999998</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="6">
         <v>1320.25</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="6">
         <v>13636.09</v>
       </c>
       <c r="G22" s="6">
         <v>316.88</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="6">
         <v>11081.14</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>3557.46</v>
       </c>
       <c r="J22" s="6">
         <v>0.86</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="4">
-        <v>43374</v>
-      </c>
-      <c r="B23" s="5">
+    <row r="23" spans="1:10">
+      <c r="A23" s="3">
+        <v>45217</v>
+      </c>
+      <c r="B23" s="6">
         <v>1502.66</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23" s="6">
         <v>13410.41</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="6">
         <v>2754.55</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="6">
         <v>1545.32</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="6">
         <v>14363.75</v>
       </c>
       <c r="G23" s="6">
         <v>316.27</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="6">
         <v>11800.28</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>3791.64</v>
       </c>
       <c r="J23" s="6">
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="4">
-        <v>43405</v>
-      </c>
-      <c r="B24" s="5">
+    <row r="24" spans="1:10">
+      <c r="A24" s="3">
+        <v>45248</v>
+      </c>
+      <c r="B24" s="6">
         <v>1434.27</v>
       </c>
-      <c r="C24" s="5">
+      <c r="C24" s="6">
         <v>12870.49</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="6">
         <v>2597.06</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="6">
         <v>1312.92</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="6">
         <v>13538.8</v>
       </c>
       <c r="G24" s="6">
         <v>320.14</v>
       </c>
-      <c r="H24" s="5">
+      <c r="H24" s="6">
         <v>10878.75</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>3652.25</v>
       </c>
       <c r="J24" s="6">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="4">
-        <v>43435</v>
-      </c>
-      <c r="B25" s="5">
+    <row r="25" spans="1:10">
+      <c r="A25" s="3">
+        <v>45278</v>
+      </c>
+      <c r="B25" s="6">
         <v>1467.09</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="6">
         <v>11220.28</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="6">
         <v>2677.62</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E25" s="6">
         <v>1706.82</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="6">
         <v>12583.27</v>
       </c>
       <c r="G25" s="6">
         <v>296.64999999999998</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="6">
         <v>10270.030000000001</v>
       </c>
-      <c r="I25" s="5">
+      <c r="I25" s="6">
         <v>3722.76</v>
       </c>
       <c r="J25" s="6">
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A26" s="4">
-        <v>43466</v>
-      </c>
-      <c r="B26" s="5">
+    <row r="26" spans="1:10">
+      <c r="A26" s="3">
+        <v>44945</v>
+      </c>
+      <c r="B26" s="6">
         <v>1220.9000000000001</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="6">
         <v>11427.48</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="6">
         <v>2356.81</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="6">
         <v>1131.26</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="6">
         <v>12896.83</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="6">
         <v>281.69</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="6">
         <v>10478.530000000001</v>
       </c>
-      <c r="I26" s="8">
+      <c r="I26" s="6">
         <v>3267.4</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="6">
         <v>0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="4">
-        <v>43497</v>
-      </c>
-      <c r="B27" s="5">
+    <row r="27" spans="1:10">
+      <c r="A27" s="3">
+        <v>44976</v>
+      </c>
+      <c r="B27" s="6">
         <v>1027.76</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="6">
         <v>9224.2900000000009</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="6">
         <v>2213.02</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="6">
         <v>1050.78</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="6">
         <v>11737.78</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="6">
         <v>233.22</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="6">
         <v>9798.4500000000007</v>
       </c>
-      <c r="I27" s="8">
+      <c r="I27" s="6">
         <v>2753.31</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="6">
         <v>3.57</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="4">
-        <v>43525</v>
-      </c>
-      <c r="B28" s="5">
+    <row r="28" spans="1:10">
+      <c r="A28" s="3">
+        <v>45004</v>
+      </c>
+      <c r="B28" s="6">
         <v>1169.46</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="6">
         <v>10350.06</v>
       </c>
-      <c r="D28" s="5">
+      <c r="D28" s="6">
         <v>2227.11</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="6">
         <v>1077.4100000000001</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="6">
         <v>13370.38</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="6">
         <v>269.39999999999998</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="6">
         <v>10862.37</v>
       </c>
-      <c r="I28" s="8">
+      <c r="I28" s="6">
         <v>3311.28</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="6">
         <v>4.74</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="4">
-        <v>43556</v>
-      </c>
-      <c r="B29" s="5">
+    <row r="29" spans="1:10">
+      <c r="A29" s="3">
+        <v>45035</v>
+      </c>
+      <c r="B29" s="6">
         <v>1460.22</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="6">
         <v>11570.7</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29" s="6">
         <v>2368.27</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="6">
         <v>688.11</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="6">
         <v>12379.96</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="6">
         <v>250.79</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="6">
         <v>10050.799999999999</v>
       </c>
-      <c r="I29" s="8">
+      <c r="I29" s="6">
         <v>2765.86</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="6">
         <v>0.63</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10">
       <c r="A30" s="4">
-        <v>43586</v>
-      </c>
-      <c r="B30" s="5">
+        <v>45065</v>
+      </c>
+      <c r="B30" s="6">
         <v>1553.19</v>
       </c>
-      <c r="C30" s="5">
+      <c r="C30" s="6">
         <v>10730.75</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="6">
         <v>2322.7199999999998</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="6">
         <v>1054.24</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="6">
         <v>13697.65</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="6">
         <v>316.27</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="6">
         <v>11296.11</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I30" s="6">
         <v>3138.97</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A31" s="4">
-        <v>43617</v>
-      </c>
-      <c r="B31" s="5">
+    <row r="31" spans="1:10">
+      <c r="A31" s="3">
+        <v>45096</v>
+      </c>
+      <c r="B31" s="6">
         <v>1029.77</v>
       </c>
-      <c r="C31" s="5">
+      <c r="C31" s="6">
         <v>8736.16</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="6">
         <v>1729.46</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="6">
         <v>714.13</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="6">
         <v>11049.22</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="6">
         <v>208.55</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="6">
         <v>9175.2099999999991</v>
       </c>
-      <c r="I31" s="8">
+      <c r="I31" s="6">
         <v>2379.06</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="6">
         <v>0.54</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A32" s="4">
-        <v>43647</v>
-      </c>
-      <c r="B32" s="5">
+    <row r="32" spans="1:10">
+      <c r="A32" s="3">
+        <v>45126</v>
+      </c>
+      <c r="B32" s="6">
         <v>1465.6</v>
       </c>
-      <c r="C32" s="5">
+      <c r="C32" s="6">
         <v>11272.83</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="6">
         <v>2780.05</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="6">
         <v>1400.5</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="6">
         <v>13837.92</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="6">
         <v>314.02999999999997</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="6">
         <v>11750.41</v>
       </c>
-      <c r="I32" s="8">
+      <c r="I32" s="6">
         <v>3173.38</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="4">
-        <v>43678</v>
-      </c>
-      <c r="B33" s="5">
+    <row r="33" spans="1:10">
+      <c r="A33" s="3">
+        <v>45157</v>
+      </c>
+      <c r="B33" s="6">
         <v>1363.84</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="6">
         <v>10329.969999999999</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="6">
         <v>2475.5500000000002</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="6">
         <v>842.84</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="6">
         <v>13419.12</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="6">
         <v>337.86</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="6">
         <v>11394.49</v>
       </c>
-      <c r="I33" s="8">
+      <c r="I33" s="6">
         <v>2529.08</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="6">
         <v>0.54</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="4">
-        <v>43709</v>
-      </c>
-      <c r="B34" s="5">
+    <row r="34" spans="1:10">
+      <c r="A34" s="3">
+        <v>45188</v>
+      </c>
+      <c r="B34" s="6">
         <v>1407.53</v>
       </c>
-      <c r="C34" s="5">
+      <c r="C34" s="6">
         <v>10261.5</v>
       </c>
-      <c r="D34" s="5">
+      <c r="D34" s="6">
         <v>2594.42</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="6">
         <v>803.03</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="6">
         <v>13277.08</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="6">
         <v>356.24</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="6">
         <v>11083.69</v>
       </c>
-      <c r="I34" s="8">
+      <c r="I34" s="6">
         <v>2637.69</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="6">
         <v>2.4900000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="4">
-        <v>43739</v>
-      </c>
-      <c r="B35" s="5">
+    <row r="35" spans="1:10">
+      <c r="A35" s="3">
+        <v>45218</v>
+      </c>
+      <c r="B35" s="6">
         <v>1436.11</v>
       </c>
-      <c r="C35" s="5">
+      <c r="C35" s="6">
         <v>10881.07</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="6">
         <v>2441.9</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="6">
         <v>859.95</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="6">
         <v>14021.5</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="6">
         <v>339.45</v>
       </c>
-      <c r="H35" s="8">
+      <c r="H35" s="6">
         <v>11521.65</v>
       </c>
-      <c r="I35" s="8">
+      <c r="I35" s="6">
         <v>3019.71</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="6">
         <v>0.65</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="4">
-        <v>43770</v>
-      </c>
-      <c r="B36" s="5">
+    <row r="36" spans="1:10">
+      <c r="A36" s="3">
+        <v>45249</v>
+      </c>
+      <c r="B36" s="6">
         <v>1667.81</v>
       </c>
-      <c r="C36" s="5">
+      <c r="C36" s="6">
         <v>11167.8</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="6">
         <v>2504.87</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="6">
         <v>1033.73</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="6">
         <v>12910.76</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="6">
         <v>335.04</v>
       </c>
-      <c r="H36" s="8">
+      <c r="H36" s="6">
         <v>10748.95</v>
       </c>
-      <c r="I36" s="8">
+      <c r="I36" s="6">
         <v>2859.85</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="6">
         <v>0.64</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A37" s="4">
-        <v>43800</v>
-      </c>
-      <c r="B37" s="5">
+    <row r="37" spans="1:10">
+      <c r="A37" s="3">
+        <v>45279</v>
+      </c>
+      <c r="B37" s="6">
         <v>1651.85</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="6">
         <v>10402.950000000001</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="6">
         <v>2451.98</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="6">
         <v>1133.28</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="6">
         <v>13295.53</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="6">
         <v>369.84</v>
       </c>
-      <c r="H37" s="8">
+      <c r="H37" s="6">
         <v>11018.62</v>
       </c>
-      <c r="I37" s="8">
+      <c r="I37" s="6">
         <v>3039.78</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="6">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A38" s="4">
-        <v>43831</v>
-      </c>
-      <c r="B38" s="5">
+    <row r="38" spans="1:10">
+      <c r="A38" s="3">
+        <v>44946</v>
+      </c>
+      <c r="B38" s="6">
         <v>1467.16</v>
       </c>
-      <c r="C38" s="5">
+      <c r="C38" s="6">
         <v>10569.76</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="6">
         <v>2231.8000000000002</v>
       </c>
       <c r="E38" s="6">
         <v>815.32</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="6">
         <v>12821.09</v>
       </c>
       <c r="G38" s="6">
         <v>295.69</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="6">
         <v>10907.25</v>
       </c>
-      <c r="I38" s="5">
+      <c r="I38" s="6">
         <v>2432.98</v>
       </c>
       <c r="J38" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A39" s="4">
-        <v>43862</v>
+    <row r="39" spans="1:10">
+      <c r="A39" s="3">
+        <v>44977</v>
       </c>
       <c r="B39" s="6">
         <v>881.84</v>
       </c>
-      <c r="C39" s="5">
+      <c r="C39" s="6">
         <v>8836.93</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="6">
         <v>1829.33</v>
       </c>
       <c r="E39" s="6">
         <v>805.15</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="6">
         <v>13236.94</v>
       </c>
       <c r="G39" s="6">
         <v>299.11</v>
       </c>
-      <c r="H39" s="5">
+      <c r="H39" s="6">
         <v>11273.12</v>
       </c>
-      <c r="I39" s="5">
+      <c r="I39" s="6">
         <v>2469.54</v>
       </c>
       <c r="J39" s="6">
         <v>0.32</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="4">
-        <v>43891</v>
-      </c>
-      <c r="B40" s="5">
+    <row r="40" spans="1:10">
+      <c r="A40" s="3">
+        <v>45005</v>
+      </c>
+      <c r="B40" s="6">
         <v>1269.26</v>
       </c>
-      <c r="C40" s="5">
+      <c r="C40" s="6">
         <v>10282.02</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="6">
         <v>1800.9</v>
       </c>
       <c r="E40" s="6">
         <v>617.36</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="6">
         <v>13413.94</v>
       </c>
       <c r="G40" s="6">
         <v>315.04000000000002</v>
       </c>
-      <c r="H40" s="5">
+      <c r="H40" s="6">
         <v>11214.15</v>
       </c>
-      <c r="I40" s="5">
+      <c r="I40" s="6">
         <v>2501.56</v>
       </c>
       <c r="J40" s="6">
         <v>0.53</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A41" s="4">
-        <v>43922</v>
-      </c>
-      <c r="B41" s="5">
+    <row r="41" spans="1:10">
+      <c r="A41" s="3">
+        <v>45036</v>
+      </c>
+      <c r="B41" s="6">
         <v>1214.98</v>
       </c>
-      <c r="C41" s="5">
+      <c r="C41" s="6">
         <v>9357.06</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="6">
         <v>1963.19</v>
       </c>
       <c r="E41" s="6">
         <v>562.08000000000004</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="6">
         <v>11597.75</v>
       </c>
       <c r="G41" s="6">
         <v>283.85000000000002</v>
       </c>
-      <c r="H41" s="5">
+      <c r="H41" s="6">
         <v>9864.6</v>
       </c>
-      <c r="I41" s="5">
+      <c r="I41" s="6">
         <v>2010.93</v>
       </c>
       <c r="J41" s="6">
         <v>0.44</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="A42" s="4">
-        <v>43952</v>
+        <v>45066</v>
       </c>
       <c r="B42" s="6">
         <v>934.69</v>
       </c>
-      <c r="C42" s="5">
+      <c r="C42" s="6">
         <v>6110.26</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="6">
         <v>1393.68</v>
       </c>
       <c r="E42" s="6">
         <v>560.9</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="6">
         <v>9891.73</v>
       </c>
       <c r="G42" s="6">
         <v>235.6</v>
       </c>
-      <c r="H42" s="5">
+      <c r="H42" s="6">
         <v>8431.4699999999993</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="6">
         <v>1785.35</v>
       </c>
       <c r="J42" s="6">
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A43" s="4">
-        <v>43983</v>
-      </c>
-      <c r="B43" s="5">
+    <row r="43" spans="1:10">
+      <c r="A43" s="3">
+        <v>45097</v>
+      </c>
+      <c r="B43" s="6">
         <v>1408.06</v>
       </c>
-      <c r="C43" s="5">
+      <c r="C43" s="6">
         <v>7577.29</v>
       </c>
-      <c r="D43" s="5">
+      <c r="D43" s="6">
         <v>1774.97</v>
       </c>
       <c r="E43" s="6">
         <v>567.37</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F43" s="6">
         <v>11439.44</v>
       </c>
       <c r="G43" s="6">
         <v>281.26</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="6">
         <v>9802.51</v>
       </c>
-      <c r="I43" s="5">
+      <c r="I43" s="6">
         <v>1922.86</v>
       </c>
       <c r="J43" s="6">
         <v>0.17</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="4">
-        <v>44013</v>
-      </c>
-      <c r="B44" s="5">
+    <row r="44" spans="1:10">
+      <c r="A44" s="3">
+        <v>45127</v>
+      </c>
+      <c r="B44" s="6">
         <v>1112.23</v>
       </c>
-      <c r="C44" s="5">
+      <c r="C44" s="6">
         <v>7385.2</v>
       </c>
-      <c r="D44" s="5">
+      <c r="D44" s="6">
         <v>1966.87</v>
       </c>
       <c r="E44" s="6">
         <v>660.43</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F44" s="6">
         <v>13029.47</v>
       </c>
       <c r="G44" s="6">
         <v>349.61</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="6">
         <v>11442.41</v>
       </c>
-      <c r="I44" s="5">
+      <c r="I44" s="6">
         <v>1897.53</v>
       </c>
       <c r="J44" s="6">
         <v>0.35</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A45" s="4">
-        <v>44044</v>
-      </c>
-      <c r="B45" s="5">
+    <row r="45" spans="1:10">
+      <c r="A45" s="3">
+        <v>45158</v>
+      </c>
+      <c r="B45" s="6">
         <v>1193.8499999999999</v>
       </c>
-      <c r="C45" s="5">
+      <c r="C45" s="6">
         <v>7754.98</v>
       </c>
-      <c r="D45" s="5">
+      <c r="D45" s="6">
         <v>1793.58</v>
       </c>
       <c r="E45" s="6">
         <v>599.58000000000004</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="6">
         <v>12455.7</v>
       </c>
       <c r="G45" s="6">
         <v>342.28</v>
       </c>
-      <c r="H45" s="5">
+      <c r="H45" s="6">
         <v>10833.21</v>
       </c>
-      <c r="I45" s="5">
+      <c r="I45" s="6">
         <v>1879.2</v>
       </c>
       <c r="J45" s="6">
         <v>0.59</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A46" s="4">
-        <v>44075</v>
-      </c>
-      <c r="B46" s="5">
+    <row r="46" spans="1:10">
+      <c r="A46" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B46" s="6">
         <v>1120.76</v>
       </c>
-      <c r="C46" s="5">
+      <c r="C46" s="6">
         <v>8315.11</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="6">
         <v>2134.23</v>
       </c>
       <c r="E46" s="6">
         <v>667.32</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F46" s="6">
         <v>13288.86</v>
       </c>
       <c r="G46" s="6">
         <v>414.82</v>
       </c>
-      <c r="H46" s="5">
+      <c r="H46" s="6">
         <v>11696.41</v>
       </c>
-      <c r="I46" s="5">
+      <c r="I46" s="6">
         <v>1844.34</v>
       </c>
       <c r="J46" s="6">
         <v>0.6</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="4">
-        <v>44105</v>
-      </c>
-      <c r="B47" s="5">
+    <row r="47" spans="1:10">
+      <c r="A47" s="3">
+        <v>45219</v>
+      </c>
+      <c r="B47" s="6">
         <v>1035.95</v>
       </c>
-      <c r="C47" s="5">
+      <c r="C47" s="6">
         <v>7899.92</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="6">
         <v>1850.15</v>
       </c>
       <c r="E47" s="6">
         <v>614.54</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F47" s="6">
         <v>13748.9</v>
       </c>
       <c r="G47" s="6">
         <v>420.56</v>
       </c>
-      <c r="H47" s="5">
+      <c r="H47" s="6">
         <v>11884.92</v>
       </c>
-      <c r="I47" s="5">
+      <c r="I47" s="6">
         <v>2057.42</v>
       </c>
       <c r="J47" s="6">
         <v>0.54</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="4">
-        <v>44136</v>
-      </c>
-      <c r="B48" s="5">
+    <row r="48" spans="1:10">
+      <c r="A48" s="3">
+        <v>45250</v>
+      </c>
+      <c r="B48" s="6">
         <v>1300.9000000000001</v>
       </c>
-      <c r="C48" s="5">
+      <c r="C48" s="6">
         <v>8928.7099999999991</v>
       </c>
-      <c r="D48" s="5">
+      <c r="D48" s="6">
         <v>2434.8000000000002</v>
       </c>
       <c r="E48" s="6">
         <v>762.25</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="6">
         <v>14496.17</v>
       </c>
       <c r="G48" s="6">
         <v>448.03</v>
       </c>
-      <c r="H48" s="5">
+      <c r="H48" s="6">
         <v>12162.17</v>
       </c>
-      <c r="I48" s="5">
+      <c r="I48" s="6">
         <v>2647.82</v>
       </c>
       <c r="J48" s="6">
         <v>0.4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="4">
-        <v>44166</v>
-      </c>
-      <c r="B49" s="5">
+    <row r="49" spans="1:10">
+      <c r="A49" s="3">
+        <v>45280</v>
+      </c>
+      <c r="B49" s="6">
         <v>1716.02</v>
       </c>
-      <c r="C49" s="5">
+      <c r="C49" s="6">
         <v>10192.700000000001</v>
       </c>
-      <c r="D49" s="5">
+      <c r="D49" s="6">
         <v>2529.66</v>
       </c>
-      <c r="E49" s="5">
+      <c r="E49" s="6">
         <v>1018.79</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="6">
         <v>15520.76</v>
       </c>
       <c r="G49" s="6">
         <v>433.11</v>
       </c>
-      <c r="H49" s="5">
+      <c r="H49" s="6">
         <v>13031.29</v>
       </c>
-      <c r="I49" s="5">
+      <c r="I49" s="6">
         <v>3074.63</v>
       </c>
       <c r="J49" s="6">
         <v>0.53</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A50" s="4">
-        <v>44197</v>
-      </c>
-      <c r="B50" s="5">
+    <row r="50" spans="1:10">
+      <c r="A50" s="3">
+        <v>44947</v>
+      </c>
+      <c r="B50" s="6">
         <v>1432.2</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C50" s="6">
         <v>9924.14</v>
       </c>
-      <c r="D50" s="5">
+      <c r="D50" s="6">
         <v>1973.57</v>
       </c>
       <c r="E50" s="6">
         <v>883.81</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F50" s="6">
         <v>14416.36</v>
       </c>
       <c r="G50" s="6">
         <v>338.82</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="6">
         <v>12101.24</v>
       </c>
-      <c r="I50" s="5">
+      <c r="I50" s="6">
         <v>2858.86</v>
       </c>
       <c r="J50" s="6">
         <v>1.26</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A51" s="4">
-        <v>44228</v>
-      </c>
-      <c r="B51" s="5">
+    <row r="51" spans="1:10">
+      <c r="A51" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B51" s="6">
         <v>1240.3800000000001</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C51" s="6">
         <v>9871.89</v>
       </c>
-      <c r="D51" s="5">
+      <c r="D51" s="6">
         <v>2152.6999999999998</v>
       </c>
       <c r="E51" s="6">
         <v>860.59</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="6">
         <v>14394.81</v>
       </c>
       <c r="G51" s="6">
         <v>310.05</v>
       </c>
-      <c r="H51" s="5">
+      <c r="H51" s="6">
         <v>12254.57</v>
       </c>
-      <c r="I51" s="5">
+      <c r="I51" s="6">
         <v>2690.16</v>
       </c>
       <c r="J51" s="6">
         <v>0.62</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="4">
-        <v>44256</v>
-      </c>
-      <c r="B52" s="5">
+    <row r="52" spans="1:10">
+      <c r="A52" s="3">
+        <v>45006</v>
+      </c>
+      <c r="B52" s="6">
         <v>1443.31</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C52" s="6">
         <v>12936.33</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="6">
         <v>2407.88</v>
       </c>
       <c r="E52" s="6">
         <v>951.52</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F52" s="6">
         <v>17446.900000000001</v>
       </c>
       <c r="G52" s="6">
         <v>395.28</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="6">
         <v>14995.95</v>
       </c>
-      <c r="I52" s="5">
+      <c r="I52" s="6">
         <v>3006.56</v>
       </c>
       <c r="J52" s="6">
         <v>0.62</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A53" s="4">
-        <v>44287</v>
-      </c>
-      <c r="B53" s="5">
+    <row r="53" spans="1:10">
+      <c r="A53" s="3">
+        <v>45037</v>
+      </c>
+      <c r="B53" s="6">
         <v>1629.59</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C53" s="6">
         <v>12380.11</v>
       </c>
-      <c r="D53" s="5">
+      <c r="D53" s="6">
         <v>2194.63</v>
       </c>
       <c r="E53" s="6">
         <v>941.72</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F53" s="6">
         <v>17532.419999999998</v>
       </c>
       <c r="G53" s="6">
         <v>339.27</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="6">
         <v>15008.23</v>
       </c>
-      <c r="I53" s="5">
+      <c r="I53" s="6">
         <v>3125.98</v>
       </c>
       <c r="J53" s="6">
         <v>0.65</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10">
       <c r="A54" s="4">
-        <v>44317</v>
-      </c>
-      <c r="B54" s="5">
+        <v>45067</v>
+      </c>
+      <c r="B54" s="6">
         <v>1405.55</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C54" s="6">
         <v>10943.87</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="6">
         <v>1885.4</v>
       </c>
       <c r="E54" s="6">
         <v>940.58</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F54" s="6">
         <v>15967.44</v>
       </c>
       <c r="G54" s="6">
         <v>243.52</v>
       </c>
-      <c r="H54" s="5">
+      <c r="H54" s="6">
         <v>13238.2</v>
       </c>
-      <c r="I54" s="5">
+      <c r="I54" s="6">
         <v>3425.72</v>
       </c>
       <c r="J54" s="6">
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A55" s="4">
-        <v>44348</v>
-      </c>
-      <c r="B55" s="5">
+    <row r="55" spans="1:10">
+      <c r="A55" s="3">
+        <v>45098</v>
+      </c>
+      <c r="B55" s="6">
         <v>1643.56</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C55" s="6">
         <v>13029.26</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="6">
         <v>2545.64</v>
       </c>
-      <c r="E55" s="5">
+      <c r="E55" s="6">
         <v>1239.29</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F55" s="6">
         <v>17308.46</v>
       </c>
       <c r="G55" s="6">
         <v>326.19</v>
       </c>
-      <c r="H55" s="5">
+      <c r="H55" s="6">
         <v>14266.42</v>
       </c>
-      <c r="I55" s="5">
+      <c r="I55" s="6">
         <v>3954.44</v>
       </c>
       <c r="J55" s="6">
         <v>0.69</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A56" s="4">
-        <v>44378</v>
-      </c>
-      <c r="B56" s="5">
+    <row r="56" spans="1:10">
+      <c r="A56" s="3">
+        <v>45128</v>
+      </c>
+      <c r="B56" s="6">
         <v>1627.86</v>
       </c>
-      <c r="C56" s="5">
+      <c r="C56" s="6">
         <v>11558.38</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="6">
         <v>2076.88</v>
       </c>
       <c r="E56" s="6">
         <v>978.81</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F56" s="6">
         <v>18390.79</v>
       </c>
       <c r="G56" s="6">
         <v>306.56</v>
       </c>
-      <c r="H56" s="5">
+      <c r="H56" s="6">
         <v>14922.77</v>
       </c>
-      <c r="I56" s="5">
+      <c r="I56" s="6">
         <v>4139.66</v>
       </c>
       <c r="J56" s="6">
         <v>0.61</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A57" s="4">
-        <v>44409</v>
-      </c>
-      <c r="B57" s="5">
+    <row r="57" spans="1:10">
+      <c r="A57" s="3">
+        <v>45159</v>
+      </c>
+      <c r="B57" s="6">
         <v>1889.17</v>
       </c>
-      <c r="C57" s="5">
+      <c r="C57" s="6">
         <v>12376.29</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="6">
         <v>2413.4299999999998</v>
       </c>
-      <c r="E57" s="5">
+      <c r="E57" s="6">
         <v>1044.5899999999999</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F57" s="6">
         <v>20398.560000000001</v>
       </c>
       <c r="G57" s="6">
         <v>343.41</v>
       </c>
-      <c r="H57" s="5">
+      <c r="H57" s="6">
         <v>16618.810000000001</v>
       </c>
-      <c r="I57" s="5">
+      <c r="I57" s="6">
         <v>4480.29</v>
       </c>
       <c r="J57" s="6">
         <v>0.64</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A58" s="4">
-        <v>44440</v>
-      </c>
-      <c r="B58" s="5">
+    <row r="58" spans="1:10">
+      <c r="A58" s="3">
+        <v>45190</v>
+      </c>
+      <c r="B58" s="6">
         <v>1789.58</v>
       </c>
-      <c r="C58" s="5">
+      <c r="C58" s="6">
         <v>12095.4</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="6">
         <v>2349.17</v>
       </c>
       <c r="E58" s="6">
         <v>934.77</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F58" s="6">
         <v>19684.02</v>
       </c>
       <c r="G58" s="6">
         <v>398.15</v>
       </c>
-      <c r="H58" s="5">
+      <c r="H58" s="6">
         <v>15790.14</v>
       </c>
-      <c r="I58" s="5">
+      <c r="I58" s="6">
         <v>4429.6000000000004</v>
       </c>
       <c r="J58" s="6">
         <v>0.9</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A59" s="4">
-        <v>44470</v>
-      </c>
-      <c r="B59" s="5">
+    <row r="59" spans="1:10">
+      <c r="A59" s="3">
+        <v>45220</v>
+      </c>
+      <c r="B59" s="6">
         <v>1589.68</v>
       </c>
-      <c r="C59" s="5">
+      <c r="C59" s="6">
         <v>12309.67</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="6">
         <v>2394.2600000000002</v>
       </c>
-      <c r="E59" s="5">
+      <c r="E59" s="6">
         <v>1064.28</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F59" s="6">
         <v>21026.71</v>
       </c>
       <c r="G59" s="6">
         <v>410.08</v>
       </c>
-      <c r="H59" s="5">
+      <c r="H59" s="6">
         <v>16222.1</v>
       </c>
-      <c r="I59" s="5">
+      <c r="I59" s="6">
         <v>5455.83</v>
       </c>
       <c r="J59" s="6">
         <v>2.98</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A60" s="4">
-        <v>44501</v>
-      </c>
-      <c r="B60" s="5">
+    <row r="60" spans="1:10">
+      <c r="A60" s="3">
+        <v>45251</v>
+      </c>
+      <c r="B60" s="6">
         <v>2001.45</v>
       </c>
-      <c r="C60" s="5">
+      <c r="C60" s="6">
         <v>14329.81</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="6">
         <v>2996.93</v>
       </c>
-      <c r="E60" s="5">
+      <c r="E60" s="6">
         <v>1339.45</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F60" s="6">
         <v>21505.91</v>
       </c>
       <c r="G60" s="6">
         <v>428.43</v>
       </c>
-      <c r="H60" s="5">
+      <c r="H60" s="6">
         <v>16509.66</v>
       </c>
-      <c r="I60" s="5">
+      <c r="I60" s="6">
         <v>5906.54</v>
       </c>
       <c r="J60" s="6">
         <v>0.73</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
-        <v>44531</v>
-      </c>
-      <c r="B61" s="5">
+    <row r="61" spans="1:10">
+      <c r="A61" s="3">
+        <v>45281</v>
+      </c>
+      <c r="B61" s="6">
         <v>2490.52</v>
       </c>
-      <c r="C61" s="5">
+      <c r="C61" s="6">
         <v>15625.02</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="6">
         <v>3236.48</v>
       </c>
-      <c r="E61" s="5">
+      <c r="E61" s="6">
         <v>1068.01</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F61" s="6">
         <v>21289.71</v>
       </c>
       <c r="G61" s="6">
         <v>402.23</v>
       </c>
-      <c r="H61" s="5">
+      <c r="H61" s="6">
         <v>17273.12</v>
       </c>
-      <c r="I61" s="5">
+      <c r="I61" s="6">
         <v>4681.5</v>
       </c>
       <c r="J61" s="6">
         <v>0.87</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A62" s="4">
-        <v>44562</v>
-      </c>
-      <c r="B62" s="5">
+    <row r="62" spans="1:10">
+      <c r="A62" s="3">
+        <v>44948</v>
+      </c>
+      <c r="B62" s="6">
         <v>1579.09</v>
       </c>
-      <c r="C62" s="5">
+      <c r="C62" s="6">
         <v>13830.72</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="6">
         <v>2801.3</v>
       </c>
       <c r="E62" s="6">
         <v>901.17</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F62" s="6">
         <v>18272.53</v>
       </c>
       <c r="G62" s="6">
         <v>380.99</v>
       </c>
-      <c r="H62" s="5">
+      <c r="H62" s="6">
         <v>15975.59</v>
       </c>
-      <c r="I62" s="5">
+      <c r="I62" s="6">
         <v>2816.31</v>
       </c>
       <c r="J62" s="6">
         <v>0.81</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A63" s="4">
-        <v>44593</v>
-      </c>
-      <c r="B63" s="5">
+    <row r="63" spans="1:10">
+      <c r="A63" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B63" s="6">
         <v>1202.6500000000001</v>
       </c>
-      <c r="C63" s="5">
+      <c r="C63" s="6">
         <v>12831.48</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="6">
         <v>2604.38</v>
       </c>
       <c r="E63" s="6">
         <v>994.84</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F63" s="6">
         <v>19478.05</v>
       </c>
       <c r="G63" s="6">
         <v>345.22</v>
       </c>
-      <c r="H63" s="5">
+      <c r="H63" s="6">
         <v>15860.87</v>
       </c>
-      <c r="I63" s="5">
+      <c r="I63" s="6">
         <v>4266.34</v>
       </c>
       <c r="J63" s="6">
         <v>0.47</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="4">
-        <v>44621</v>
-      </c>
-      <c r="B64" s="5">
+    <row r="64" spans="1:10">
+      <c r="A64" s="3">
+        <v>45007</v>
+      </c>
+      <c r="B64" s="6">
         <v>1814.33</v>
       </c>
-      <c r="C64" s="5">
+      <c r="C64" s="6">
         <v>17014.86</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="6">
         <v>3133.23</v>
       </c>
-      <c r="E64" s="5">
+      <c r="E64" s="6">
         <v>1405.06</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F64" s="6">
         <v>25092.42</v>
       </c>
       <c r="G64" s="6">
         <v>429.24</v>
       </c>
-      <c r="H64" s="5">
+      <c r="H64" s="6">
         <v>19717.990000000002</v>
       </c>
-      <c r="I64" s="5">
+      <c r="I64" s="6">
         <v>6349.69</v>
       </c>
       <c r="J64" s="6">
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="4">
-        <v>44652</v>
-      </c>
-      <c r="B65" s="5">
+    <row r="65" spans="1:10">
+      <c r="A65" s="3">
+        <v>45038</v>
+      </c>
+      <c r="B65" s="6">
         <v>1698.37</v>
       </c>
-      <c r="C65" s="5">
+      <c r="C65" s="6">
         <v>15531.89</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="6">
         <v>2527.19</v>
       </c>
-      <c r="E65" s="5">
+      <c r="E65" s="6">
         <v>1433.26</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F65" s="6">
         <v>25889.03</v>
       </c>
       <c r="G65" s="6">
         <v>395.51</v>
       </c>
-      <c r="H65" s="5">
+      <c r="H65" s="6">
         <v>19694.45</v>
       </c>
-      <c r="I65" s="5">
+      <c r="I65" s="6">
         <v>7229.68</v>
       </c>
       <c r="J65" s="6">
         <v>2.65</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10">
       <c r="A66" s="4">
-        <v>44682</v>
-      </c>
-      <c r="B66" s="5">
+        <v>45068</v>
+      </c>
+      <c r="B66" s="6">
         <v>1515.43</v>
       </c>
-      <c r="C66" s="5">
+      <c r="C66" s="6">
         <v>14658.13</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="6">
         <v>2435.7199999999998</v>
       </c>
-      <c r="E66" s="5">
+      <c r="E66" s="6">
         <v>1496.12</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F66" s="6">
         <v>20013.71</v>
       </c>
       <c r="G66" s="6">
         <v>295.48</v>
       </c>
-      <c r="H66" s="5">
+      <c r="H66" s="6">
         <v>14625.9</v>
       </c>
-      <c r="I66" s="5">
+      <c r="I66" s="6">
         <v>6587.94</v>
       </c>
       <c r="J66" s="6">
         <v>0.5</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="4">
-        <v>44713</v>
-      </c>
-      <c r="B67" s="5">
+    <row r="67" spans="1:10">
+      <c r="A67" s="3">
+        <v>45099</v>
+      </c>
+      <c r="B67" s="6">
         <v>1697.92</v>
       </c>
-      <c r="C67" s="5">
+      <c r="C67" s="6">
         <v>16229.61</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="6">
         <v>3076.33</v>
       </c>
-      <c r="E67" s="5">
+      <c r="E67" s="6">
         <v>1549.28</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F67" s="6">
         <v>24600.83</v>
       </c>
       <c r="G67" s="6">
         <v>367.45</v>
       </c>
-      <c r="H67" s="5">
+      <c r="H67" s="6">
         <v>18699.46</v>
       </c>
-      <c r="I67" s="5">
+      <c r="I67" s="6">
         <v>7080.75</v>
       </c>
       <c r="J67" s="6">
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="4">
-        <v>44743</v>
-      </c>
-      <c r="B68" s="5">
+    <row r="68" spans="1:10">
+      <c r="A68" s="3">
+        <v>45129</v>
+      </c>
+      <c r="B68" s="6">
         <v>1648.76</v>
       </c>
-      <c r="C68" s="5">
+      <c r="C68" s="6">
         <v>16698.72</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="6">
         <v>2997.55</v>
       </c>
-      <c r="E68" s="5">
+      <c r="E68" s="6">
         <v>1367.91</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F68" s="6">
         <v>24195.29</v>
       </c>
       <c r="G68" s="6">
         <v>385.01</v>
       </c>
-      <c r="H68" s="5">
+      <c r="H68" s="6">
         <v>17835.97</v>
       </c>
-      <c r="I68" s="5">
+      <c r="I68" s="6">
         <v>7338.14</v>
       </c>
       <c r="J68" s="6">
         <v>4.08</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A69" s="4">
-        <v>44774</v>
-      </c>
-      <c r="B69" s="5">
+    <row r="69" spans="1:10">
+      <c r="A69" s="3">
+        <v>45160</v>
+      </c>
+      <c r="B69" s="6">
         <v>1851.27</v>
       </c>
-      <c r="C69" s="5">
+      <c r="C69" s="6">
         <v>16757.830000000002</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="6">
         <v>3541.46</v>
       </c>
-      <c r="E69" s="5">
+      <c r="E69" s="6">
         <v>1686.54</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F69" s="6">
         <v>26175.55</v>
       </c>
       <c r="G69" s="6">
         <v>451.28</v>
       </c>
-      <c r="H69" s="5">
+      <c r="H69" s="6">
         <v>20241.04</v>
       </c>
-      <c r="I69" s="5">
+      <c r="I69" s="6">
         <v>7153.24</v>
       </c>
       <c r="J69" s="6">
         <v>16.53</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A70" s="4">
-        <v>44805</v>
-      </c>
-      <c r="B70" s="5">
+    <row r="70" spans="1:10">
+      <c r="A70" s="3">
+        <v>45191</v>
+      </c>
+      <c r="B70" s="6">
         <v>1589.88</v>
       </c>
-      <c r="C70" s="5">
+      <c r="C70" s="6">
         <v>14903.19</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="6">
         <v>3315.27</v>
       </c>
-      <c r="E70" s="5">
+      <c r="E70" s="6">
         <v>1310.47</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F70" s="6">
         <v>23466.71</v>
       </c>
       <c r="G70" s="6">
         <v>414.65</v>
       </c>
-      <c r="H70" s="5">
+      <c r="H70" s="6">
         <v>17250.3</v>
       </c>
-      <c r="I70" s="5">
+      <c r="I70" s="6">
         <v>7110.23</v>
       </c>
       <c r="J70" s="6">
         <v>1.99</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="4">
-        <v>44835</v>
-      </c>
-      <c r="B71" s="5">
+    <row r="71" spans="1:10">
+      <c r="A71" s="3">
+        <v>45221</v>
+      </c>
+      <c r="B71" s="6">
         <v>1750.9</v>
       </c>
-      <c r="C71" s="5">
+      <c r="C71" s="6">
         <v>14308.6</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="6">
         <v>3075.85</v>
       </c>
-      <c r="E71" s="5">
+      <c r="E71" s="6">
         <v>1288.1300000000001</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F71" s="6">
         <v>23440.32</v>
       </c>
       <c r="G71" s="6">
         <v>433.75</v>
       </c>
-      <c r="H71" s="5">
+      <c r="H71" s="6">
         <v>17363.38</v>
       </c>
-      <c r="I71" s="5">
+      <c r="I71" s="6">
         <v>6930.84</v>
       </c>
       <c r="J71" s="6">
         <v>0.47</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A72" s="4">
-        <v>44866</v>
-      </c>
-      <c r="B72" s="5">
+    <row r="72" spans="1:10">
+      <c r="A72" s="3">
+        <v>45252</v>
+      </c>
+      <c r="B72" s="6">
         <v>1677.19</v>
       </c>
-      <c r="C72" s="5">
+      <c r="C72" s="6">
         <v>14069.16</v>
       </c>
-      <c r="D72" s="5">
+      <c r="D72" s="6">
         <v>3215.74</v>
       </c>
-      <c r="E72" s="5">
+      <c r="E72" s="6">
         <v>1114.1500000000001</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="6">
         <v>22979.89</v>
       </c>
       <c r="G72" s="6">
         <v>420.32</v>
       </c>
-      <c r="H72" s="5">
+      <c r="H72" s="6">
         <v>16910.63</v>
       </c>
-      <c r="I72" s="5">
+      <c r="I72" s="6">
         <v>6762.74</v>
       </c>
       <c r="J72" s="6">
         <v>0.34</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A73" s="4">
-        <v>44896</v>
-      </c>
-      <c r="B73" s="5">
+    <row r="73" spans="1:10">
+      <c r="A73" s="3">
+        <v>45282</v>
+      </c>
+      <c r="B73" s="6">
         <v>1806.58</v>
       </c>
-      <c r="C73" s="5">
+      <c r="C73" s="6">
         <v>14425.88</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="6">
         <v>3630.6</v>
       </c>
-      <c r="E73" s="5">
+      <c r="E73" s="6">
         <v>1472.81</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F73" s="6">
         <v>22355.05</v>
       </c>
       <c r="G73" s="6">
         <v>370.32</v>
       </c>
-      <c r="H73" s="5">
+      <c r="H73" s="6">
         <v>16800.080000000002</v>
       </c>
-      <c r="I73" s="5">
+      <c r="I73" s="6">
         <v>6655.65</v>
       </c>
       <c r="J73" s="6">
         <v>1.8</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A74" s="4">
-        <v>44927</v>
-      </c>
-      <c r="B74" s="5">
+    <row r="74" spans="1:10">
+      <c r="A74" s="3">
+        <v>44949</v>
+      </c>
+      <c r="B74" s="6">
         <v>1596.24</v>
       </c>
-      <c r="C74" s="5">
+      <c r="C74" s="6">
         <v>13886.9</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="6">
         <v>2959.79</v>
       </c>
-      <c r="E74" s="5">
+      <c r="E74" s="6">
         <v>1487.95</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F74" s="6">
         <v>20835.89</v>
       </c>
       <c r="G74" s="6">
         <v>374.05</v>
       </c>
-      <c r="H74" s="5">
+      <c r="H74" s="6">
         <v>16200.79</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="6">
         <v>5748.49</v>
       </c>
       <c r="J74" s="6">
         <v>0.51</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="4">
-        <v>44958</v>
-      </c>
-      <c r="B75" s="5">
+    <row r="75" spans="1:10">
+      <c r="A75" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B75" s="6">
         <v>1364.09</v>
       </c>
-      <c r="C75" s="5">
+      <c r="C75" s="6">
         <v>11791.92</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="6">
         <v>2763.16</v>
       </c>
-      <c r="E75" s="5">
+      <c r="E75" s="6">
         <v>1186.51</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F75" s="6">
         <v>20134.759999999998</v>
       </c>
       <c r="G75" s="6">
         <v>338.01</v>
       </c>
-      <c r="H75" s="5">
+      <c r="H75" s="6">
         <v>15751.05</v>
       </c>
-      <c r="I75" s="5">
+      <c r="I75" s="6">
         <v>5231.63</v>
       </c>
       <c r="J75" s="6">
         <v>0.59</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
-      <c r="A76" s="4">
-        <v>44986</v>
-      </c>
-      <c r="B76" s="5">
+    <row r="76" spans="1:10">
+      <c r="A76" s="3">
+        <v>45008</v>
+      </c>
+      <c r="B76" s="6">
         <v>1761.45</v>
       </c>
-      <c r="C76" s="5">
+      <c r="C76" s="6">
         <v>15114.16</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="6">
         <v>3712.44</v>
       </c>
-      <c r="E76" s="5">
+      <c r="E76" s="6">
         <v>1338.23</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F76" s="6">
         <v>22077.77</v>
       </c>
       <c r="G76" s="6">
         <v>377.82</v>
       </c>
-      <c r="H76" s="5">
+      <c r="H76" s="6">
         <v>16936.38</v>
       </c>
-      <c r="I76" s="5">
+      <c r="I76" s="6">
         <v>6101.37</v>
       </c>
       <c r="J76" s="6">
         <v>0.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="3">
+        <v>45039</v>
+      </c>
+      <c r="B77" s="5">
+        <v>1398.17</v>
+      </c>
+      <c r="C77" s="5">
+        <v>11597.87</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2351.5700000000002</v>
+      </c>
+      <c r="E77" s="5">
+        <v>1258.6600000000001</v>
+      </c>
+      <c r="F77" s="5">
+        <v>18025.41</v>
+      </c>
+      <c r="G77" s="7">
+        <v>12.2</v>
+      </c>
+      <c r="H77" s="5">
+        <v>13483.09</v>
+      </c>
+      <c r="I77" s="5">
+        <v>5507.96</v>
+      </c>
+      <c r="J77" s="7">
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
